--- a/testdata/test_data_too_long.xlsx
+++ b/testdata/test_data_too_long.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tester\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tester\files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBB226-EB41-4C1B-A0E7-1EDF2A2B3859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361D8FF-C6DA-4702-A5FF-E94E1FAC6930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C8727D1C-AE65-423C-9142-B8D665E9977F}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Lubuskie</t>
   </si>
   <si>
-    <t>Krakow</t>
-  </si>
-  <si>
     <t>al. Klasztorna 06</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>tc</t>
+  </si>
+  <si>
+    <t>Kraków</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,37 +556,37 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -600,19 +600,19 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -752,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
